--- a/data/trans_orig/IP74A2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP74A2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC797FD-FCA2-45F3-B260-DB7E543BF25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3F2FC5-AAF2-47E0-91F2-608A41E26B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FDCB31B-4A52-4582-B742-F829B733D023}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{638C309E-B1C5-4BFA-9867-D67521E4826A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8FC84F-6BA6-4500-8A6B-F1BA0A2298DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30639268-9277-49E9-A8A7-4A481B4A3816}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP74A2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP74A2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3F2FC5-AAF2-47E0-91F2-608A41E26B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E1551E-3BAF-49D9-AB9D-1374DA759C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{638C309E-B1C5-4BFA-9867-D67521E4826A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D5041983-6AD6-4179-B317-61B7BED97B55}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="27">
-  <si>
-    <t>Adulto según si ha resuelto el alquiler en 2023 (Tasa respuesta: 0,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+  <si>
+    <t>Adulto según si ha resuelto el alquiler en 2023 (Tasa respuesta: 2,19%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,49 +71,253 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -528,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30639268-9277-49E9-A8A7-4A481B4A3816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AE9ADD-8BE1-42A1-95AF-D56871FEF30F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -646,88 +850,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>782</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1173</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1955</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1407</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1408</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -736,143 +952,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2189</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1173</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3363</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1490</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>391</v>
+        <v>2918</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>391</v>
+        <v>4408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>637</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>3212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -881,23 +1107,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2127</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>391</v>
+        <v>5493</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
@@ -909,10 +1137,10 @@
         <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N9" s="7">
-        <v>391</v>
+        <v>7620</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>16</v>
@@ -926,102 +1154,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2124</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>4073</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>730</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2741</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>730</v>
+        <v>2741</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1030,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>730</v>
+        <v>1949</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -1045,23 +1277,25 @@
         <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4865</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>730</v>
+        <v>6814</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>16</v>
@@ -1075,102 +1309,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1296</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>5280</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>6576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1889</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>522</v>
+        <v>1442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>522</v>
+        <v>3331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1179,23 +1417,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3185</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>522</v>
+        <v>6722</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>16</v>
@@ -1207,10 +1447,10 @@
         <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N15" s="7">
-        <v>522</v>
+        <v>9907</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>16</v>
@@ -1230,100 +1470,100 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>5516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>391</v>
+        <v>11495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N16" s="7">
-        <v>391</v>
+        <v>17011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>730</v>
+        <v>3934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>522</v>
+        <v>6758</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>1251</v>
+        <v>10692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1332,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>730</v>
+        <v>9450</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>16</v>
@@ -1347,10 +1587,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>913</v>
+        <v>18253</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>16</v>
@@ -1362,10 +1602,10 @@
         <v>16</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N18" s="7">
-        <v>1642</v>
+        <v>27703</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>16</v>
@@ -1379,7 +1619,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
